--- a/Chuva_SC.xlsx
+++ b/Chuva_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardofreitas/Documents/Eduardo/Faculdade/Calculo Numérico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66B1842C-86DD-464E-859C-96ED1192EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFCDA0CF-0353-9F47-B063-8042A654C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="64000" windowHeight="36000" xr2:uid="{2EEB8D11-2DC8-A042-A9C3-281B7F9A01DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="64000" windowHeight="34400" xr2:uid="{2EEB8D11-2DC8-A042-A9C3-281B7F9A01DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>t (mês)</t>
+    <t>Chuva</t>
   </si>
   <si>
-    <t>Chuva (mm)</t>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9282248A-C2E8-B440-AC55-F6626899D539}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -403,85 +403,107 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>233</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>199</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>137</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>84</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>101</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>104</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>84</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>144</v>
       </c>
-      <c r="K2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>148</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>134</v>
       </c>
-      <c r="M2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>168</v>
       </c>
     </row>
